--- a/data/trans_camb/P25_7-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_7-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>9,53</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 8,15</t>
+          <t>-3,53; 8,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 6,7</t>
+          <t>-5,23; 7,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 13,56</t>
+          <t>0,02; 16,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 8,45</t>
+          <t>-12,13; 5,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 11,48</t>
+          <t>-10,34; 5,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 21,29</t>
+          <t>-10,08; 6,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 6,33</t>
+          <t>-8,9; 8,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,63</t>
+          <t>-9,14; 9,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 14,15</t>
+          <t>-0,79; 19,22</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,73; 9,81</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 6,11</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 5,55</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 9,88</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 8,99</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; 5,22</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>129,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-30,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>-21,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,97%</t>
+          <t>-12,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>-1,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>-3,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>73,13%</t>
+          <t>61,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-3,3%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>33,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15,18%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-9,82%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 234,81</t>
+          <t>-45,71; 259,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,46; 199,36</t>
+          <t>-63,45; 259,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,21; 401,49</t>
+          <t>-6,44; 517,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,28; 72,3</t>
+          <t>-71,24; 69,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 95,94</t>
+          <t>-67,65; 84,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 190,62</t>
+          <t>-50,22; 58,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 78,87</t>
+          <t>-43,96; 75,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,46; 79,0</t>
+          <t>-46,17; 77,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 176,75</t>
+          <t>-4,5; 169,68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,44; 46,26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-31,4; 76,04</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-36,71; 68,04</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-16,08; 119,5</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-23,6; 79,96</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-40,92; 35,62</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-5,91</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-10,58</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,89</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-1,87</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,7</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 6,93</t>
+          <t>-5,94; 6,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 16,48</t>
+          <t>-1,52; 15,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 17,28</t>
+          <t>2,17; 24,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -1,8</t>
+          <t>-20,61; 5,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 5,51</t>
+          <t>-10,97; 8,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 8,06</t>
+          <t>-19,14; -2,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 1,52</t>
+          <t>-12,22; 5,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 7,81</t>
+          <t>-12,34; 6,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 9,47</t>
+          <t>-8,84; 9,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; 8,93</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 0,37</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 8,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 12,83</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 4,88</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 5,76</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>62,76%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,93%</t>
+          <t>116,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-37,97%</t>
+          <t>-26,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,95%</t>
+          <t>-10,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-38,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,56%</t>
+          <t>-12,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,35%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-25,47%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>26,62%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-10,92%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-5,1%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 96,33</t>
+          <t>-44,63; 96,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 234,3</t>
+          <t>-14,26; 209,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 259,68</t>
+          <t>6,7; 312,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,85; -7,77</t>
+          <t>-64,86; 33,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,24; 24,12</t>
+          <t>-48,98; 64,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 34,26</t>
+          <t>-58,53; -11,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 10,56</t>
+          <t>-37,14; 25,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 48,8</t>
+          <t>-38,24; 30,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 60,43</t>
+          <t>-29,94; 51,25</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-31,53; 43,76</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-49,22; 3,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-19,64; 56,08</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 80,59</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-38,92; 26,12</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-30,79; 31,13</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>7,66</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10,94</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
           <t>2,38</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 5,48</t>
+          <t>-6,11; 7,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 3,57</t>
+          <t>-7,76; 4,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 11,32</t>
+          <t>-2,91; 11,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 4,6</t>
+          <t>-9,55; 6,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 3,57</t>
+          <t>-10,77; 5,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 9,51</t>
+          <t>-7,3; 5,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 3,27</t>
+          <t>-8,93; 4,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 1,7</t>
+          <t>-1,06; 13,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 7,89</t>
+          <t>-0,83; 16,3</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 19,01</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 4,25</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 2,72</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 10,35</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 8,19</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 9,79</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,84%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-19,19%</t>
+          <t>-8,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,07%</t>
+          <t>-7,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,69%</t>
+          <t>-14,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>-2,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>-8,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,04%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>24,26%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>38,71%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-8,43%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>25,08%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>15,71%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,14; 50,4</t>
+          <t>-35,72; 68,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,22; 29,69</t>
+          <t>-43,19; 40,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 93,91</t>
+          <t>-18,79; 108,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 20,79</t>
+          <t>-46,38; 46,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 16,68</t>
+          <t>-48,85; 32,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 40,93</t>
+          <t>-24,87; 26,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 18,76</t>
+          <t>-30,46; 19,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,04; 8,19</t>
+          <t>-3,91; 60,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 43,05</t>
+          <t>-2,53; 58,57</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 80,63</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-22,29; 24,4</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-27,81; 16,74</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 58,81</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-13,82; 36,46</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-9,32; 47,52</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,37</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>5,53</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,28</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 8,71</t>
+          <t>-7,48; 8,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 13,81</t>
+          <t>-3,39; 13,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,54; 24,13</t>
+          <t>-4,34; 14,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 5,6</t>
+          <t>-6,27; 12,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 8,98</t>
+          <t>-16,19; 3,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 18,53</t>
+          <t>-8,69; 6,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,89</t>
+          <t>-6,42; 7,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 8,58</t>
+          <t>-1,4; 14,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,57; 18,84</t>
+          <t>-2,82; 13,79</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 11,54</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 5,22</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 8,72</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 11,54</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 10,3</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-8,31; 4,89</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>25,11%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>75,15%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>-17,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>42,88%</t>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-1,5%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>18,54%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-5,11%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 52,49</t>
+          <t>-30,79; 51,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 85,42</t>
+          <t>-13,81; 80,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,23; 144,69</t>
+          <t>-18,02; 83,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 18,64</t>
+          <t>-20,83; 54,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 29,17</t>
+          <t>-38,39; 12,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,56; 59,94</t>
+          <t>-22,41; 20,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 19,91</t>
+          <t>-16,3; 24,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 33,76</t>
+          <t>-4,15; 46,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,23; 74,43</t>
+          <t>-6,15; 37,57</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-13,47; 29,23</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-18,19; 20,59</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 33,04</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 44,85</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 33,01</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-19,09; 13,37</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12,39</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>2,26</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5,93</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 8,53</t>
+          <t>-7,17; 9,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 14,37</t>
+          <t>-2,17; 15,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 22,11</t>
+          <t>-5,88; 11,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 6,98</t>
+          <t>-0,91; 19,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 10,75</t>
+          <t>-10,12; 10,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,43; 19,06</t>
+          <t>-10,95; 6,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 5,97</t>
+          <t>-9,08; 8,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 10,32</t>
+          <t>-3,75; 15,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,83; 17,93</t>
+          <t>-7,26; 13,37</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-10,53; 8,59</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 5,67</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 10,03</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 11,43</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 12,37</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 6,19</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-4,62%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>-5,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,87%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-2,48%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>13,32%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>15,18%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-0,56%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 39,07</t>
+          <t>-23,44; 42,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 66,04</t>
+          <t>-8,14; 67,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>8,01; 103,98</t>
+          <t>-20,61; 52,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 20,1</t>
+          <t>-2,91; 78,52</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 29,28</t>
+          <t>-23,54; 33,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,87; 53,21</t>
+          <t>-23,31; 17,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 19,65</t>
+          <t>-19,18; 23,29</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 34,0</t>
+          <t>-7,8; 41,93</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,77; 58,05</t>
+          <t>-13,47; 30,79</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-18,49; 18,16</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-17,12; 18,72</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-9,04; 32,65</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 36,18</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 35,5</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-15,26; 14,73</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>5,41</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-5,02</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 4,71</t>
+          <t>-16,56; 4,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 19,41</t>
+          <t>-3,73; 19,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 10,99</t>
+          <t>-9,83; 12,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 2,87</t>
+          <t>-12,31; 10,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 4,81</t>
+          <t>-10,47; 10,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 7,02</t>
+          <t>-15,5; 4,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 0,58</t>
+          <t>-12,25; 7,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 7,86</t>
+          <t>-19,5; 3,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 6,0</t>
+          <t>-7,87; 17,7</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-11,54; 14,63</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-11,46; 2,61</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 10,0</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 6,25</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 11,02</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; 9,91</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-19,36%</t>
+          <t>-18,62%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,05%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-12,93%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-8,3%</t>
+          <t>-9,28%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-14,75%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>-13,78%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>12,05%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-12,03%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-7,96%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,03; 20,38</t>
+          <t>-47,91; 18,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 85,27</t>
+          <t>-11,43; 82,35</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 50,01</t>
+          <t>-27,4; 55,17</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 6,12</t>
+          <t>-36,35; 41,81</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 9,6</t>
+          <t>-30,49; 46,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 14,54</t>
+          <t>-26,68; 9,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,27; 1,53</t>
+          <t>-20,92; 15,99</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,04; 19,88</t>
+          <t>-35,08; 7,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 15,27</t>
+          <t>-15,08; 46,91</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-20,43; 35,8</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-25,67; 6,72</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; 26,79</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-24,99; 16,31</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-13,52; 33,07</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-17,19; 28,78</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,62</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,79</t>
+          <t>-3,39; 3,31</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 7,02</t>
+          <t>0,29; 7,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,35</t>
+          <t>1,78; 9,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -0,74</t>
+          <t>-4,56; 3,96</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 1,94</t>
+          <t>-6,73; 1,62</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,05; 8,4</t>
+          <t>-7,22; -0,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,3</t>
+          <t>-5,15; 2,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,25</t>
+          <t>-2,61; 5,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,67</t>
+          <t>1,28; 9,66</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 6,68</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 0,25</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 3,96</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 6,19</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 5,53</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 3,14</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-8,81%</t>
+          <t>-3,84%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>15,29%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-7,57%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 17,58</t>
+          <t>-17,5; 21,02</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 43,66</t>
+          <t>1,12; 45,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>15,93; 70,81</t>
+          <t>8,92; 62,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,09; -2,19</t>
+          <t>-18,35; 18,16</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 5,79</t>
+          <t>-24,54; 6,36</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 25,46</t>
+          <t>-19,86; -0,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 1,23</t>
+          <t>-14,07; 7,5</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 13,19</t>
+          <t>-7,25; 16,34</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,8; 35,1</t>
+          <t>3,42; 28,44</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-5,69; 18,47</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-16,29; 1,11</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 15,97</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 25,05</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 19,86</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; 10,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
